--- a/data/trans_camb/P12A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12A-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,67</t>
+          <t>-4,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,06</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 7,66</t>
+          <t>-11,08; 22,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 6,81</t>
+          <t>-19,52; 8,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 6,01</t>
+          <t>-7,52; 30,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 7,44</t>
+          <t>-13,2; 10,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 2,93</t>
+          <t>-13,28; 12,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 4,59</t>
+          <t>-13,99; 10,43</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 11,73</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,99; 7,01</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,52; 14,19</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-35,54%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-38,24%</t>
+          <t>-43,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-28,71%</t>
+          <t>78,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,67%</t>
+          <t>-3,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-32,11%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-29,06%</t>
+          <t>-1,23%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-19,87%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>43,21%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-78,92; 90,49</t>
+          <t>-80,19; inf</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-83,39; 83,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-79,74; 103,78</t>
+          <t>-61,54; 1024,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-69,11; 126,95</t>
+          <t>-84,4; 307,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,89; 37,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,13; 59,86</t>
+          <t>-100,0; 294,87</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-64,47; 271,0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-80,63; 150,75</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-51,14; 292,4</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>13,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>14,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,62</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9,09</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7,42</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 28,88</t>
+          <t>-4,14; 42,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 32,29</t>
+          <t>-3,36; 48,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 1,86</t>
+          <t>-8,28; 41,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 10,84</t>
+          <t>-12,83; 0,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 13,15</t>
+          <t>-6,57; 11,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 18,69</t>
+          <t>-5,23; 15,59</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 23,84</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 28,74</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 32,09</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>106,47%</t>
+          <t>118,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>118,94%</t>
+          <t>134,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-60,34%</t>
+          <t>81,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>65,95%</t>
+          <t>-76,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>51,77%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>107,79%</t>
+          <t>66,85%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52,38%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>102,98%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>84,09%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 554,1</t>
+          <t>-45,1; 888,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 648,5</t>
+          <t>-38,39; 992,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 168,3</t>
+          <t>-69,48; 984,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,99; 665,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,57; 253,16</t>
+          <t>-69,88; 563,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 415,18</t>
+          <t>-59,08; 664,91</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-51,42; 456,76</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-30,27; 560,44</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-41,6; 533,67</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-3,64</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,9</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 13,14</t>
+          <t>-7,88; 7,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 26,43</t>
+          <t>-6,33; 11,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 3,55</t>
+          <t>-4,66; 13,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 6,0</t>
+          <t>-12,62; 4,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 5,84</t>
+          <t>-10,48; 7,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 12,09</t>
+          <t>-12,35; 4,52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,59; 3,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,91; 5,99</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,57; 5,59</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>-1,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>27,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-30,32%</t>
+          <t>69,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,71%</t>
+          <t>-36,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,39%</t>
+          <t>-14,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>-29,22%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-30,44%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-8,09%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-11,05%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-91,97; 392,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-90,15; 662,18</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,55; 52,24</t>
+          <t>-70,74; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,26; 88,51</t>
+          <t>-75,62; 75,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,2; 91,38</t>
+          <t>-61,64; 119,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,81; 167,23</t>
+          <t>-70,7; 73,16</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-67,98; 53,99</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-54,94; 90,7</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-55,55; 81,02</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 9,94</t>
+          <t>-9,12; 13,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 9,79</t>
+          <t>-8,7; 13,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 7,5</t>
+          <t>-9,55; 14,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 10,32</t>
+          <t>-9,59; 9,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 6,82</t>
+          <t>-8,58; 10,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 7,99</t>
+          <t>-2,6; 17,88</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 8,56</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-5,94; 8,66</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 12,57</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>49,81%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>34,09%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 116,93</t>
+          <t>-49,29; 165,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,61; 113,81</t>
+          <t>-47,48; 162,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,24; 64,89</t>
+          <t>-51,91; 152,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,68; 88,9</t>
+          <t>-51,22; 100,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,81; 59,07</t>
+          <t>-45,23; 116,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 68,56</t>
+          <t>-17,28; 187,94</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-32,91; 82,52</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-32,7; 78,74</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-15,29; 122,9</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>5,77</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,41</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 13,58</t>
+          <t>-12,59; 19,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 14,17</t>
+          <t>-14,44; 16,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 15,79</t>
+          <t>-13,15; 19,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 9,78</t>
+          <t>-12,85; 15,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 11,25</t>
+          <t>-13,71; 12,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 9,2</t>
+          <t>-9,48; 18,69</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,69; 14,46</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 11,87</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-6,91; 15,42</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-3,8%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>-5,29%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>41,22%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14,53%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>20,29%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,62; 83,32</t>
+          <t>-35,53; 92,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 87,13</t>
+          <t>-40,89; 80,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 148,06</t>
+          <t>-36,96; 102,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-49,63; 87,26</t>
+          <t>-64,47; 195,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 75,88</t>
+          <t>-66,28; 209,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 58,34</t>
+          <t>-50,45; 279,01</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-27,42; 90,78</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-34,68; 73,32</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-25,5; 91,64</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,88</t>
+          <t>-6,78</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>-15,12</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-9,29</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3,05</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 16,44</t>
+          <t>-11,97; 21,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 9,82</t>
+          <t>-18,04; 14,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 28,04</t>
+          <t>-9,78; 26,08</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 8,17</t>
+          <t>-24,2; 10,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 19,54</t>
+          <t>-32,22; -0,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 3,7</t>
+          <t>-19,06; 20,61</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-13,87; 10,95</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-20,58; 1,81</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-10,72; 16,86</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>29,8%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-14,9%</t>
+          <t>-13,28%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>47,45%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-32,75%</t>
+          <t>-30,22%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>-67,39%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-26,02%</t>
+          <t>-1,17%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-8,92%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-48,21%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>15,81%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-39,54; 131,29</t>
+          <t>-56,17; 283,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 82,42</t>
+          <t>-79,49; 219,54</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 164,02</t>
+          <t>-47,13; 314,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-70,37; 49,79</t>
+          <t>-73,27; 94,58</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-25,86; 112,6</t>
+          <t>-93,22; 9,94</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-60,17; 23,37</t>
+          <t>-62,28; 180,7</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-56,24; 90,36</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-78,46; 22,76</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-43,22; 133,06</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3,85</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 7,34</t>
+          <t>-1,65; 11,77</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 7,94</t>
+          <t>-3,79; 10,48</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 5,97</t>
+          <t>-0,93; 13,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 3,43</t>
+          <t>-7,52; 1,5</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,3</t>
+          <t>-6,85; 2,27</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,0</t>
+          <t>-2,31; 7,93</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 5,21</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 4,93</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 9,11</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-4,92%</t>
+          <t>-20,66%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>-15,73%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>19,24%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>28,81%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 59,03</t>
+          <t>-11,55; 103,8</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 64,94</t>
+          <t>-24,54; 89,32</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 50,06</t>
+          <t>-5,97; 121,92</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 30,8</t>
+          <t>-47,38; 13,61</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 33,43</t>
+          <t>-43,0; 22,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 32,67</t>
+          <t>-16,21; 73,23</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-18,79; 43,02</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; 42,94</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 72,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
